--- a/data/pca/factorExposure/factorExposure_2017-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02264683818529613</v>
+        <v>-0.0105202599869187</v>
       </c>
       <c r="C2">
-        <v>-0.008439516732298752</v>
+        <v>0.04547788140865137</v>
       </c>
       <c r="D2">
-        <v>0.03612940934723165</v>
+        <v>0.02974895409078985</v>
       </c>
       <c r="E2">
-        <v>0.005957877611612241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03325898569883731</v>
+      </c>
+      <c r="F2">
+        <v>-0.009995594067969854</v>
+      </c>
+      <c r="G2">
+        <v>0.09452817498280687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01775857778947004</v>
+        <v>-0.04238182155695238</v>
       </c>
       <c r="C3">
-        <v>0.02842019373501289</v>
+        <v>0.1014552662809614</v>
       </c>
       <c r="D3">
-        <v>0.1007972155649455</v>
+        <v>0.01767536195064831</v>
       </c>
       <c r="E3">
-        <v>0.03697617918307241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09902252768731168</v>
+      </c>
+      <c r="F3">
+        <v>-0.006235833172296913</v>
+      </c>
+      <c r="G3">
+        <v>0.1848350062190643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02553445352788239</v>
+        <v>-0.05551234161849102</v>
       </c>
       <c r="C4">
-        <v>0.007626097945096007</v>
+        <v>0.06849950862852669</v>
       </c>
       <c r="D4">
-        <v>0.08798481059966339</v>
+        <v>0.02447442377681778</v>
       </c>
       <c r="E4">
-        <v>-0.01534877787017818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0271814990550353</v>
+      </c>
+      <c r="F4">
+        <v>-0.01267485346580122</v>
+      </c>
+      <c r="G4">
+        <v>0.09552207570107536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0137141339389242</v>
+        <v>-0.03690670154208968</v>
       </c>
       <c r="C6">
-        <v>-0.008722903173022389</v>
+        <v>0.05340108472862368</v>
       </c>
       <c r="D6">
-        <v>0.0829328117138628</v>
+        <v>0.01688175963474673</v>
       </c>
       <c r="E6">
-        <v>-0.01066646375963661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03138503935874814</v>
+      </c>
+      <c r="F6">
+        <v>-0.01103315069010523</v>
+      </c>
+      <c r="G6">
+        <v>0.0761982609923678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01199296716098539</v>
+        <v>-0.02071989191468823</v>
       </c>
       <c r="C7">
-        <v>0.003922343639281515</v>
+        <v>0.04211265123138476</v>
       </c>
       <c r="D7">
-        <v>0.04303784087756043</v>
+        <v>0.01337816983539969</v>
       </c>
       <c r="E7">
-        <v>-0.05358379235244611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004398347385595821</v>
+      </c>
+      <c r="F7">
+        <v>0.003547592963011655</v>
+      </c>
+      <c r="G7">
+        <v>0.1278462626782068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0008270595378993969</v>
+        <v>-0.003620317403199323</v>
       </c>
       <c r="C8">
-        <v>0.0003603382941504583</v>
+        <v>0.02499308214473918</v>
       </c>
       <c r="D8">
-        <v>0.006253164259317466</v>
+        <v>0.003881618841112762</v>
       </c>
       <c r="E8">
-        <v>-0.00805411806431708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02294626093796493</v>
+      </c>
+      <c r="F8">
+        <v>-0.007371896722045011</v>
+      </c>
+      <c r="G8">
+        <v>0.06551347472669726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01756916546760198</v>
+        <v>-0.03309116783893971</v>
       </c>
       <c r="C9">
-        <v>0.00988876768892552</v>
+        <v>0.04941225476442777</v>
       </c>
       <c r="D9">
-        <v>0.06299423678712934</v>
+        <v>0.01663103768614116</v>
       </c>
       <c r="E9">
-        <v>-0.00519663283686763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01727974834553842</v>
+      </c>
+      <c r="F9">
+        <v>-0.009987804298879259</v>
+      </c>
+      <c r="G9">
+        <v>0.09507812939943346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03817374267976441</v>
+        <v>-0.09905266113707302</v>
       </c>
       <c r="C10">
-        <v>0.176758541326355</v>
+        <v>-0.1807937865641548</v>
       </c>
       <c r="D10">
-        <v>-0.09714908170105742</v>
+        <v>-0.01472701999458163</v>
       </c>
       <c r="E10">
-        <v>0.02386015247009677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02067925069473511</v>
+      </c>
+      <c r="F10">
+        <v>0.02177726233755837</v>
+      </c>
+      <c r="G10">
+        <v>0.06013832580687905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007989939863224013</v>
+        <v>-0.03479062271183644</v>
       </c>
       <c r="C11">
-        <v>-0.000377186420237708</v>
+        <v>0.05514751612241531</v>
       </c>
       <c r="D11">
-        <v>0.05676573343451601</v>
+        <v>0.002261745910433031</v>
       </c>
       <c r="E11">
-        <v>-0.0009397396083730057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009826482023107838</v>
+      </c>
+      <c r="F11">
+        <v>-0.02165586068935347</v>
+      </c>
+      <c r="G11">
+        <v>0.0839895846260824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005858012467418233</v>
+        <v>-0.03650486833960865</v>
       </c>
       <c r="C12">
-        <v>0.00124786088672068</v>
+        <v>0.04957541741954253</v>
       </c>
       <c r="D12">
-        <v>0.05209869056117544</v>
+        <v>0.006176737107389321</v>
       </c>
       <c r="E12">
-        <v>-0.01342622025132884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002523896531317269</v>
+      </c>
+      <c r="F12">
+        <v>-0.001823332021704985</v>
+      </c>
+      <c r="G12">
+        <v>0.07879078146253657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02513421702310244</v>
+        <v>-0.01597536042673763</v>
       </c>
       <c r="C13">
-        <v>0.01315790920017606</v>
+        <v>0.04077322242999278</v>
       </c>
       <c r="D13">
-        <v>0.03625272324356312</v>
+        <v>0.02617406608701458</v>
       </c>
       <c r="E13">
-        <v>0.01236971772173845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03016625379065734</v>
+      </c>
+      <c r="F13">
+        <v>-0.00728159976732207</v>
+      </c>
+      <c r="G13">
+        <v>0.1190582411712629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009919594906943862</v>
+        <v>-0.008831332294352292</v>
       </c>
       <c r="C14">
-        <v>0.01206500066852266</v>
+        <v>0.02945590690939041</v>
       </c>
       <c r="D14">
-        <v>0.02049078917764589</v>
+        <v>0.009829428992876924</v>
       </c>
       <c r="E14">
-        <v>-0.002979563496083248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002319086677924513</v>
+      </c>
+      <c r="F14">
+        <v>0.008720680932522385</v>
+      </c>
+      <c r="G14">
+        <v>0.09834191435595525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002114487803778329</v>
+        <v>-0.0332476427765628</v>
       </c>
       <c r="C16">
-        <v>0.006129450490123519</v>
+        <v>0.04852872773867883</v>
       </c>
       <c r="D16">
-        <v>0.05073696783822901</v>
+        <v>0.001845667284392074</v>
       </c>
       <c r="E16">
-        <v>-0.0108852613755604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009271342070499292</v>
+      </c>
+      <c r="F16">
+        <v>-0.002848536996415787</v>
+      </c>
+      <c r="G16">
+        <v>0.08690520447791043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01554325534947593</v>
+        <v>-0.02160926951715526</v>
       </c>
       <c r="C19">
-        <v>0.01034108329448629</v>
+        <v>0.0541748809465419</v>
       </c>
       <c r="D19">
-        <v>0.048316702895376</v>
+        <v>0.01897131782922076</v>
       </c>
       <c r="E19">
-        <v>-0.006397533842828473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06921842741917776</v>
+      </c>
+      <c r="F19">
+        <v>-0.02329302739970237</v>
+      </c>
+      <c r="G19">
+        <v>0.1320918360846099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01118490222125913</v>
+        <v>-0.01494868738766444</v>
       </c>
       <c r="C20">
-        <v>0.002093826433283639</v>
+        <v>0.04017059977735959</v>
       </c>
       <c r="D20">
-        <v>0.03464044917442636</v>
+        <v>0.01407501330063322</v>
       </c>
       <c r="E20">
-        <v>0.01686688679303988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02940828681757133</v>
+      </c>
+      <c r="F20">
+        <v>0.0107582838328042</v>
+      </c>
+      <c r="G20">
+        <v>0.1059425006256777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01609282999431753</v>
+        <v>-0.01276612956574088</v>
       </c>
       <c r="C21">
-        <v>0.01192452544088982</v>
+        <v>0.04074609230266724</v>
       </c>
       <c r="D21">
-        <v>0.03959405290237362</v>
+        <v>0.01861866009915627</v>
       </c>
       <c r="E21">
-        <v>0.0002530301637212062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04203789494493902</v>
+      </c>
+      <c r="F21">
+        <v>-0.00213323770146132</v>
+      </c>
+      <c r="G21">
+        <v>0.1302872633924438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0007284830372175843</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002131272878537765</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002931877270743944</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001080184591724244</v>
+      </c>
+      <c r="F22">
+        <v>-0.0005863811837623732</v>
+      </c>
+      <c r="G22">
+        <v>0.001939023782616596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0007328317670557173</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002127417475607034</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002933174530088781</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001085917555023533</v>
+      </c>
+      <c r="F23">
+        <v>-0.0005849563262605476</v>
+      </c>
+      <c r="G23">
+        <v>0.001950600188062403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003774951637397315</v>
+        <v>-0.02845586614106044</v>
       </c>
       <c r="C24">
-        <v>-0.006663477139546027</v>
+        <v>0.05176909324010469</v>
       </c>
       <c r="D24">
-        <v>0.0515245601264737</v>
+        <v>0.007030827778197161</v>
       </c>
       <c r="E24">
-        <v>-0.01027605275676854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005559348921472369</v>
+      </c>
+      <c r="F24">
+        <v>-0.01333170213609538</v>
+      </c>
+      <c r="G24">
+        <v>0.08557662425631668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01324644197829388</v>
+        <v>-0.04323481735300382</v>
       </c>
       <c r="C25">
-        <v>0.01003734712479502</v>
+        <v>0.05956115850115233</v>
       </c>
       <c r="D25">
-        <v>0.06113576842524351</v>
+        <v>0.01102746242980954</v>
       </c>
       <c r="E25">
-        <v>-0.01235288736420582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001446860087555691</v>
+      </c>
+      <c r="F25">
+        <v>-0.006954795162584178</v>
+      </c>
+      <c r="G25">
+        <v>0.09576440046316222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02331841645667358</v>
+        <v>-0.01380629120731331</v>
       </c>
       <c r="C26">
-        <v>0.002926118862409898</v>
+        <v>0.01204951201334309</v>
       </c>
       <c r="D26">
-        <v>0.003365291939279117</v>
+        <v>0.02408445872397687</v>
       </c>
       <c r="E26">
-        <v>-0.006855893997067194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007438318976127633</v>
+      </c>
+      <c r="F26">
+        <v>0.007649463246935365</v>
+      </c>
+      <c r="G26">
+        <v>0.07886796054249511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.06682883464133375</v>
+        <v>-0.1259797185864926</v>
       </c>
       <c r="C28">
-        <v>0.2432353553749155</v>
+        <v>-0.2366360856574937</v>
       </c>
       <c r="D28">
-        <v>-0.1216025245167978</v>
+        <v>-0.005618398428994788</v>
       </c>
       <c r="E28">
-        <v>-0.002809546988799268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006601378510714679</v>
+      </c>
+      <c r="F28">
+        <v>0.01471859059382387</v>
+      </c>
+      <c r="G28">
+        <v>0.05662457586579285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0108861740179137</v>
+        <v>-0.009826551130517801</v>
       </c>
       <c r="C29">
-        <v>0.01724729300831116</v>
+        <v>0.02323911066079591</v>
       </c>
       <c r="D29">
-        <v>0.0213094264580747</v>
+        <v>0.008859619346798466</v>
       </c>
       <c r="E29">
-        <v>-0.0003478732259457855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001106617227838037</v>
+      </c>
+      <c r="F29">
+        <v>0.01786598156675381</v>
+      </c>
+      <c r="G29">
+        <v>0.0918684061708348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02320388049118061</v>
+        <v>-0.0416396967687542</v>
       </c>
       <c r="C30">
-        <v>-0.01032741168468253</v>
+        <v>0.07024424436997438</v>
       </c>
       <c r="D30">
-        <v>0.09958866360535659</v>
+        <v>0.02865252921354839</v>
       </c>
       <c r="E30">
-        <v>0.03394778322824892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05250608859243459</v>
+      </c>
+      <c r="F30">
+        <v>-0.04697158325011671</v>
+      </c>
+      <c r="G30">
+        <v>0.1042770300163607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01190808447048834</v>
+        <v>-0.0530403911366927</v>
       </c>
       <c r="C31">
-        <v>0.0291031898238267</v>
+        <v>0.03814222408023501</v>
       </c>
       <c r="D31">
-        <v>0.03904810450190874</v>
+        <v>0.003831856775227887</v>
       </c>
       <c r="E31">
-        <v>-0.003850763581615334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001829743742429523</v>
+      </c>
+      <c r="F31">
+        <v>0.03985655453500702</v>
+      </c>
+      <c r="G31">
+        <v>0.092904063515673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004953138585466136</v>
+        <v>-0.001484744983838478</v>
       </c>
       <c r="C32">
-        <v>0.01382972631037216</v>
+        <v>0.02593623143968155</v>
       </c>
       <c r="D32">
-        <v>0.01072894561632423</v>
+        <v>-0.003351969116051503</v>
       </c>
       <c r="E32">
-        <v>-0.05050636242104781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01974995453906628</v>
+      </c>
+      <c r="F32">
+        <v>-0.04084209519562769</v>
+      </c>
+      <c r="G32">
+        <v>0.09391269170748406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01478609409529166</v>
+        <v>-0.02794031277822729</v>
       </c>
       <c r="C33">
-        <v>0.01383056350899789</v>
+        <v>0.05092101816501663</v>
       </c>
       <c r="D33">
-        <v>0.04307846933765107</v>
+        <v>0.01568539616041359</v>
       </c>
       <c r="E33">
-        <v>0.02185854134229011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03614740096912571</v>
+      </c>
+      <c r="F33">
+        <v>-0.01781872284855773</v>
+      </c>
+      <c r="G33">
+        <v>0.1432436168621234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002091411273287044</v>
+        <v>-0.0406527044232388</v>
       </c>
       <c r="C34">
-        <v>0.01552385927971765</v>
+        <v>0.06209272804883161</v>
       </c>
       <c r="D34">
-        <v>0.05999352884215922</v>
+        <v>-0.004845684046487051</v>
       </c>
       <c r="E34">
-        <v>-0.02129391199056366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0004915564354093302</v>
+      </c>
+      <c r="F34">
+        <v>-0.02019645619658963</v>
+      </c>
+      <c r="G34">
+        <v>0.09211815263571702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01423617282909427</v>
+        <v>-0.01629995923560361</v>
       </c>
       <c r="C36">
-        <v>0.01442047781790598</v>
+        <v>0.009721213167711122</v>
       </c>
       <c r="D36">
-        <v>0.00721031467309007</v>
+        <v>0.01224768369389027</v>
       </c>
       <c r="E36">
-        <v>-0.004716606133003668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004127807185878542</v>
+      </c>
+      <c r="F36">
+        <v>0.006671317848578264</v>
+      </c>
+      <c r="G36">
+        <v>0.08535371785944049</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0004695373829122734</v>
+        <v>-0.03211615457537561</v>
       </c>
       <c r="C38">
-        <v>0.02773005555461</v>
+        <v>0.03222750544178693</v>
       </c>
       <c r="D38">
-        <v>0.05188798437328413</v>
+        <v>-0.007523387733874057</v>
       </c>
       <c r="E38">
-        <v>-0.009429691218854678</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002860940335402685</v>
+      </c>
+      <c r="F38">
+        <v>0.01909984985971196</v>
+      </c>
+      <c r="G38">
+        <v>0.0808629168503452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.002222882778176245</v>
+        <v>-0.03673947252259338</v>
       </c>
       <c r="C39">
-        <v>-0.02859144395083558</v>
+        <v>0.08227728274664763</v>
       </c>
       <c r="D39">
-        <v>0.1032263594587991</v>
+        <v>0.01136721071165794</v>
       </c>
       <c r="E39">
-        <v>0.006933426009684578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02110093599771383</v>
+      </c>
+      <c r="F39">
+        <v>-0.02396575485498557</v>
+      </c>
+      <c r="G39">
+        <v>0.08428381162542319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01267613004360773</v>
+        <v>-0.01506783062644456</v>
       </c>
       <c r="C40">
-        <v>0.007715331267023714</v>
+        <v>0.04349306529932649</v>
       </c>
       <c r="D40">
-        <v>0.04253685132005501</v>
+        <v>0.01478723827395149</v>
       </c>
       <c r="E40">
-        <v>-0.01409720185813918</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0199758690561841</v>
+      </c>
+      <c r="F40">
+        <v>0.01511397330630564</v>
+      </c>
+      <c r="G40">
+        <v>0.1212609553487608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008426539241688184</v>
+        <v>-0.02032155265626783</v>
       </c>
       <c r="C41">
-        <v>0.02152720992810662</v>
+        <v>0.002509884582237627</v>
       </c>
       <c r="D41">
-        <v>-0.01017205576428714</v>
+        <v>0.004293513194386605</v>
       </c>
       <c r="E41">
-        <v>-0.007266123131275763</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002788488282756698</v>
+      </c>
+      <c r="F41">
+        <v>0.01404530832791875</v>
+      </c>
+      <c r="G41">
+        <v>0.07332142333719333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08825691550232674</v>
+        <v>-0.009871183722320586</v>
       </c>
       <c r="C42">
-        <v>-0.03826588641893091</v>
+        <v>0.03137726365469847</v>
       </c>
       <c r="D42">
-        <v>0.1496295112627317</v>
+        <v>0.09029704641122525</v>
       </c>
       <c r="E42">
-        <v>0.3737065525030537</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.017549207010283</v>
+      </c>
+      <c r="F42">
+        <v>0.04291394627295044</v>
+      </c>
+      <c r="G42">
+        <v>-0.1245704124523609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009794129827255086</v>
+        <v>-0.03409656573989187</v>
       </c>
       <c r="C43">
-        <v>0.02445130806581992</v>
+        <v>0.01800915015469251</v>
       </c>
       <c r="D43">
-        <v>-0.005057940516345547</v>
+        <v>0.005990442936003531</v>
       </c>
       <c r="E43">
-        <v>-0.008490506717570174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01685859089761386</v>
+      </c>
+      <c r="F43">
+        <v>0.003176962565038858</v>
+      </c>
+      <c r="G43">
+        <v>0.1072351279428847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003127042770890392</v>
+        <v>-0.01266471154798581</v>
       </c>
       <c r="C44">
-        <v>-0.000192007263174005</v>
+        <v>0.05997632572206819</v>
       </c>
       <c r="D44">
-        <v>0.05617141688527711</v>
+        <v>0.006698597990393928</v>
       </c>
       <c r="E44">
-        <v>-0.01412765056946893</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01794187962108073</v>
+      </c>
+      <c r="F44">
+        <v>0.0080232696918708</v>
+      </c>
+      <c r="G44">
+        <v>0.1014460744320753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01205716787241657</v>
+        <v>-0.0082013081748568</v>
       </c>
       <c r="C46">
-        <v>0.009513810334196007</v>
+        <v>0.01817587220940347</v>
       </c>
       <c r="D46">
-        <v>0.007569050125585098</v>
+        <v>0.01257879667703965</v>
       </c>
       <c r="E46">
-        <v>0.006645594804479272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001316806021208756</v>
+      </c>
+      <c r="F46">
+        <v>0.01677699174374457</v>
+      </c>
+      <c r="G46">
+        <v>0.09550929515945704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007371614088807804</v>
+        <v>-0.07736541099969539</v>
       </c>
       <c r="C47">
-        <v>0.03831806566398692</v>
+        <v>0.06705238630250475</v>
       </c>
       <c r="D47">
-        <v>0.07632375423992256</v>
+        <v>-0.005137321482471121</v>
       </c>
       <c r="E47">
-        <v>-0.0115106172750364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006516846099048825</v>
+      </c>
+      <c r="F47">
+        <v>0.05481277403546922</v>
+      </c>
+      <c r="G47">
+        <v>0.08174026797631881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005529875657650297</v>
+        <v>-0.01949170151483023</v>
       </c>
       <c r="C48">
-        <v>0.01824773685521129</v>
+        <v>0.01290880679515697</v>
       </c>
       <c r="D48">
-        <v>0.01989354416823483</v>
+        <v>0.001934319766327466</v>
       </c>
       <c r="E48">
-        <v>0.0008857786778110454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.00222739286210037</v>
+      </c>
+      <c r="F48">
+        <v>0.01930893597650502</v>
+      </c>
+      <c r="G48">
+        <v>0.08788252678376565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.009771213583578714</v>
+        <v>-0.07470889677302209</v>
       </c>
       <c r="C50">
-        <v>0.04055329696866516</v>
+        <v>0.0721432230630704</v>
       </c>
       <c r="D50">
-        <v>0.07386871323864386</v>
+        <v>-0.002451385955542667</v>
       </c>
       <c r="E50">
-        <v>-0.02889752636641717</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.006607035036699905</v>
+      </c>
+      <c r="F50">
+        <v>0.05502867392133906</v>
+      </c>
+      <c r="G50">
+        <v>0.09316315763881586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008588028746269167</v>
+        <v>-0.01488405910276443</v>
       </c>
       <c r="C51">
-        <v>0.01106826183284933</v>
+        <v>0.03770131490684234</v>
       </c>
       <c r="D51">
-        <v>0.02361145150392905</v>
+        <v>0.01031330383936414</v>
       </c>
       <c r="E51">
-        <v>-0.009599768522947446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01815634256605315</v>
+      </c>
+      <c r="F51">
+        <v>-0.02293976848016312</v>
+      </c>
+      <c r="G51">
+        <v>0.1186912116158325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01051712886475542</v>
+        <v>-0.08180615645018215</v>
       </c>
       <c r="C53">
-        <v>0.03906643199701074</v>
+        <v>0.08557212611356713</v>
       </c>
       <c r="D53">
-        <v>0.1307532964595702</v>
+        <v>-0.00361448900062122</v>
       </c>
       <c r="E53">
-        <v>-0.01599941868691357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02456500035950913</v>
+      </c>
+      <c r="F53">
+        <v>0.06695691296009079</v>
+      </c>
+      <c r="G53">
+        <v>0.08067801004735004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.00649982344418868</v>
+        <v>-0.03142734494157548</v>
       </c>
       <c r="C54">
-        <v>0.04093828971432686</v>
+        <v>0.01736453963336565</v>
       </c>
       <c r="D54">
-        <v>0.001237026092016195</v>
+        <v>-0.001578903091462753</v>
       </c>
       <c r="E54">
-        <v>0.01011017228856202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01300382734354398</v>
+      </c>
+      <c r="F54">
+        <v>0.004618322971401105</v>
+      </c>
+      <c r="G54">
+        <v>0.09765450480191337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005952898827185291</v>
+        <v>-0.07197401134014283</v>
       </c>
       <c r="C55">
-        <v>0.02669401444000167</v>
+        <v>0.06943917053193455</v>
       </c>
       <c r="D55">
-        <v>0.1071620004863808</v>
+        <v>-0.005103509928075243</v>
       </c>
       <c r="E55">
-        <v>-0.005850879301606004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02162056823865377</v>
+      </c>
+      <c r="F55">
+        <v>0.06343578599265394</v>
+      </c>
+      <c r="G55">
+        <v>0.0586034625290326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01078465042848629</v>
+        <v>-0.1375911611684154</v>
       </c>
       <c r="C56">
-        <v>0.05880825330538238</v>
+        <v>0.1086347552235571</v>
       </c>
       <c r="D56">
-        <v>0.1620196119999116</v>
+        <v>-0.01273974692427203</v>
       </c>
       <c r="E56">
-        <v>-0.0174309770093072</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03035170292203923</v>
+      </c>
+      <c r="F56">
+        <v>0.08169014655931171</v>
+      </c>
+      <c r="G56">
+        <v>0.03035922022776383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02507609408001484</v>
+        <v>-0.006705615237336715</v>
       </c>
       <c r="C57">
-        <v>0.004865043898765358</v>
+        <v>0.008721668992291197</v>
       </c>
       <c r="D57">
-        <v>0.04289635360179737</v>
+        <v>0.02343203769107632</v>
       </c>
       <c r="E57">
-        <v>0.02772092816530418</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02540769055242726</v>
+      </c>
+      <c r="F57">
+        <v>-0.01105655031249379</v>
+      </c>
+      <c r="G57">
+        <v>0.0289485956263993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01318746679590047</v>
+        <v>-0.05333383102286933</v>
       </c>
       <c r="C58">
-        <v>0.03859446767119432</v>
+        <v>0.05285770172372509</v>
       </c>
       <c r="D58">
-        <v>0.1397389367432936</v>
+        <v>0.02379308211567382</v>
       </c>
       <c r="E58">
-        <v>0.7149395126560333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9370782733224678</v>
+      </c>
+      <c r="F58">
+        <v>0.2196180799016055</v>
+      </c>
+      <c r="G58">
+        <v>-0.1535967690690241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.06784182357049939</v>
+        <v>-0.1606544861105058</v>
       </c>
       <c r="C59">
-        <v>0.2656934086279316</v>
+        <v>-0.2030859928463341</v>
       </c>
       <c r="D59">
-        <v>-0.1053798624884643</v>
+        <v>-0.01112535506170879</v>
       </c>
       <c r="E59">
-        <v>-0.01667837656365988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01852048792288278</v>
+      </c>
+      <c r="F59">
+        <v>-0.001076715696734595</v>
+      </c>
+      <c r="G59">
+        <v>0.04376926348296408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06095517823048123</v>
+        <v>-0.2867943748611732</v>
       </c>
       <c r="C60">
-        <v>0.1607770287619184</v>
+        <v>0.1066378826902846</v>
       </c>
       <c r="D60">
-        <v>0.1370572055908875</v>
+        <v>0.01152278422769029</v>
       </c>
       <c r="E60">
-        <v>-0.0638933663891795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.009889423479154263</v>
+      </c>
+      <c r="F60">
+        <v>-0.3440831844344652</v>
+      </c>
+      <c r="G60">
+        <v>-0.1465470577362538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003243365992742842</v>
+        <v>-0.03809749594371829</v>
       </c>
       <c r="C61">
-        <v>-0.0009645335378752365</v>
+        <v>0.06749308858015785</v>
       </c>
       <c r="D61">
-        <v>0.07565055647563489</v>
+        <v>0.005147678499668715</v>
       </c>
       <c r="E61">
-        <v>-0.009929787262092562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01356173513846622</v>
+      </c>
+      <c r="F61">
+        <v>-0.01553282478750866</v>
+      </c>
+      <c r="G61">
+        <v>0.08850138421285517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008809488570673842</v>
+        <v>-0.01522236999616602</v>
       </c>
       <c r="C63">
-        <v>0.004743735598735795</v>
+        <v>0.03066298015822374</v>
       </c>
       <c r="D63">
-        <v>0.02869449585832891</v>
+        <v>0.008537420283668554</v>
       </c>
       <c r="E63">
-        <v>-0.01635707619547361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001663649717072769</v>
+      </c>
+      <c r="F63">
+        <v>0.01640285995263082</v>
+      </c>
+      <c r="G63">
+        <v>0.09143158009281201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01121713766880406</v>
+        <v>-0.04764179084994075</v>
       </c>
       <c r="C64">
-        <v>0.02292482102877407</v>
+        <v>0.04737756762566141</v>
       </c>
       <c r="D64">
-        <v>0.06239062341787538</v>
+        <v>0.006021476951050282</v>
       </c>
       <c r="E64">
-        <v>-0.005061408262244414</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0006103646329591062</v>
+      </c>
+      <c r="F64">
+        <v>-0.006736756046052065</v>
+      </c>
+      <c r="G64">
+        <v>0.08480516826394512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01795477615949358</v>
+        <v>-0.07479359005755777</v>
       </c>
       <c r="C65">
-        <v>-0.002377092407384861</v>
+        <v>0.06031398385454656</v>
       </c>
       <c r="D65">
-        <v>0.1100592958104538</v>
+        <v>0.01644033828387402</v>
       </c>
       <c r="E65">
-        <v>-0.02557350944651782</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0323457959092498</v>
+      </c>
+      <c r="F65">
+        <v>-0.03134299121895118</v>
+      </c>
+      <c r="G65">
+        <v>0.03215623241423386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00273876800593273</v>
+        <v>-0.05173880293867782</v>
       </c>
       <c r="C66">
-        <v>-0.02571788521309496</v>
+        <v>0.1099941690083539</v>
       </c>
       <c r="D66">
-        <v>0.1359562155454922</v>
+        <v>0.01134161689001554</v>
       </c>
       <c r="E66">
-        <v>0.0009001253006242086</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03013626779214056</v>
+      </c>
+      <c r="F66">
+        <v>-0.0363769053055975</v>
+      </c>
+      <c r="G66">
+        <v>0.1001118063360068</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.008267520801141936</v>
+        <v>-0.05528724784617835</v>
       </c>
       <c r="C67">
-        <v>0.04821029475284421</v>
+        <v>0.03562564791388081</v>
       </c>
       <c r="D67">
-        <v>0.06802543141862918</v>
+        <v>-0.005938625143616359</v>
       </c>
       <c r="E67">
-        <v>-0.01197446559679148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003650245733976791</v>
+      </c>
+      <c r="F67">
+        <v>0.01829517895897161</v>
+      </c>
+      <c r="G67">
+        <v>0.0729692811510434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.08236035232446122</v>
+        <v>-0.1541776702957196</v>
       </c>
       <c r="C68">
-        <v>0.2473696941709405</v>
+        <v>-0.2694196217460045</v>
       </c>
       <c r="D68">
-        <v>-0.1534936921143601</v>
+        <v>0.006318645106639444</v>
       </c>
       <c r="E68">
-        <v>0.02527410684769391</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01263876477466219</v>
+      </c>
+      <c r="F68">
+        <v>0.03394475835387836</v>
+      </c>
+      <c r="G68">
+        <v>0.03177541478127537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003242558807562851</v>
+        <v>-0.08185224033678874</v>
       </c>
       <c r="C69">
-        <v>0.03514258038243483</v>
+        <v>0.07045364115447965</v>
       </c>
       <c r="D69">
-        <v>0.08077263134583709</v>
+        <v>-0.009055802267912827</v>
       </c>
       <c r="E69">
-        <v>-0.02427765085368248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.022778655412685</v>
+      </c>
+      <c r="F69">
+        <v>0.03666823108643073</v>
+      </c>
+      <c r="G69">
+        <v>0.09104729845358846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.06300091943127431</v>
+        <v>-0.1405587748778115</v>
       </c>
       <c r="C71">
-        <v>0.2109867768882429</v>
+        <v>-0.2274231594729986</v>
       </c>
       <c r="D71">
-        <v>-0.1017130542918484</v>
+        <v>-0.002272165466231873</v>
       </c>
       <c r="E71">
-        <v>0.02280436614889876</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03362463295010142</v>
+      </c>
+      <c r="F71">
+        <v>0.01881359997161536</v>
+      </c>
+      <c r="G71">
+        <v>0.06696572342021688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.000882495926523174</v>
+        <v>-0.0847866577338051</v>
       </c>
       <c r="C72">
-        <v>0.02669460591981301</v>
+        <v>0.07291237115282218</v>
       </c>
       <c r="D72">
-        <v>0.1085138320791496</v>
+        <v>-0.00844898374754433</v>
       </c>
       <c r="E72">
-        <v>-0.03220058339370764</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005167502204493045</v>
+      </c>
+      <c r="F72">
+        <v>-0.03854790895334278</v>
+      </c>
+      <c r="G72">
+        <v>0.07787243110378077</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.07558915047138517</v>
+        <v>-0.376239586269944</v>
       </c>
       <c r="C73">
-        <v>0.1768992031522233</v>
+        <v>0.1165511468521483</v>
       </c>
       <c r="D73">
-        <v>0.2529561389306378</v>
+        <v>0.01948375339198814</v>
       </c>
       <c r="E73">
-        <v>-0.03608268716657918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05839070876122961</v>
+      </c>
+      <c r="F73">
+        <v>-0.5752441598665612</v>
+      </c>
+      <c r="G73">
+        <v>-0.2666680688819426</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.00906075633220106</v>
+        <v>-0.1047095772290419</v>
       </c>
       <c r="C74">
-        <v>0.05344291346920018</v>
+        <v>0.1091859788336854</v>
       </c>
       <c r="D74">
-        <v>0.1734416942141691</v>
+        <v>-0.009350625479335829</v>
       </c>
       <c r="E74">
-        <v>-0.01172904191227461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.006058691008307352</v>
+      </c>
+      <c r="F74">
+        <v>0.0680846197245964</v>
+      </c>
+      <c r="G74">
+        <v>0.07444022586367112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.02382304491721264</v>
+        <v>-0.2488187296248733</v>
       </c>
       <c r="C75">
-        <v>0.1313854309722658</v>
+        <v>0.1528593959624318</v>
       </c>
       <c r="D75">
-        <v>0.3028595510119913</v>
+        <v>-0.03077274554983139</v>
       </c>
       <c r="E75">
-        <v>-0.01341037255818477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05490581118626478</v>
+      </c>
+      <c r="F75">
+        <v>0.1803185670737305</v>
+      </c>
+      <c r="G75">
+        <v>-0.03941357385022825</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.007613824545448494</v>
+        <v>-0.1198548310342199</v>
       </c>
       <c r="C76">
-        <v>0.07534774358746324</v>
+        <v>0.1102647364770344</v>
       </c>
       <c r="D76">
-        <v>0.2213003070145435</v>
+        <v>-0.01867293972577078</v>
       </c>
       <c r="E76">
-        <v>-0.04512311209981226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02899839227243905</v>
+      </c>
+      <c r="F76">
+        <v>0.1118153053102823</v>
+      </c>
+      <c r="G76">
+        <v>0.05351788424648771</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01500886810938246</v>
+        <v>-0.0672088521327751</v>
       </c>
       <c r="C77">
-        <v>0.0119789075629739</v>
+        <v>0.0606359426283184</v>
       </c>
       <c r="D77">
-        <v>0.06656898415433514</v>
+        <v>0.01134328074840529</v>
       </c>
       <c r="E77">
-        <v>0.007780666425230264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0406129375726609</v>
+      </c>
+      <c r="F77">
+        <v>-0.01669396038836677</v>
+      </c>
+      <c r="G77">
+        <v>0.05782239410363831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004885412307569266</v>
+        <v>-0.04209594890375253</v>
       </c>
       <c r="C78">
-        <v>0.003876348942737317</v>
+        <v>0.05214648622262671</v>
       </c>
       <c r="D78">
-        <v>0.05749793954640135</v>
+        <v>0.005347242874357554</v>
       </c>
       <c r="E78">
-        <v>0.001462803302480957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02166303407455889</v>
+      </c>
+      <c r="F78">
+        <v>-0.03716366380454776</v>
+      </c>
+      <c r="G78">
+        <v>0.08630904709571509</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01310492962530242</v>
+        <v>-0.0429522534222339</v>
       </c>
       <c r="C80">
-        <v>0.01586700316615621</v>
+        <v>0.07402801385885487</v>
       </c>
       <c r="D80">
-        <v>0.1531439347641514</v>
+        <v>0.01149960704482744</v>
       </c>
       <c r="E80">
-        <v>-0.541151522272955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03233248749049781</v>
+      </c>
+      <c r="F80">
+        <v>-0.03045399295675442</v>
+      </c>
+      <c r="G80">
+        <v>0.3511045889693896</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01595601064965872</v>
+        <v>-0.138564699363897</v>
       </c>
       <c r="C81">
-        <v>0.08187833820052558</v>
+        <v>0.09651536798096079</v>
       </c>
       <c r="D81">
-        <v>0.1797355403861753</v>
+        <v>-0.01514673641793332</v>
       </c>
       <c r="E81">
-        <v>-0.02963785850197205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03292177694614325</v>
+      </c>
+      <c r="F81">
+        <v>0.1319392781842368</v>
+      </c>
+      <c r="G81">
+        <v>0.02240530842538074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1280240795678314</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07361698939643409</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008353964002762834</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08947058396122812</v>
+      </c>
+      <c r="F82">
+        <v>0.04345960103112514</v>
+      </c>
+      <c r="G82">
+        <v>0.05591371286674714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008821584667097806</v>
+        <v>-0.03653380633596276</v>
       </c>
       <c r="C83">
-        <v>0.01655938524874475</v>
+        <v>0.03004825769810828</v>
       </c>
       <c r="D83">
-        <v>0.03843863417879316</v>
+        <v>0.00564147340471131</v>
       </c>
       <c r="E83">
-        <v>0.009616971439398807</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02763102048378709</v>
+      </c>
+      <c r="F83">
+        <v>-0.03245562779929088</v>
+      </c>
+      <c r="G83">
+        <v>0.06045833041477965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02706662524484724</v>
+        <v>-0.2133809208950033</v>
       </c>
       <c r="C85">
-        <v>0.09440331723840677</v>
+        <v>0.1454051413085304</v>
       </c>
       <c r="D85">
-        <v>0.267136548826837</v>
+        <v>-0.01797514258712632</v>
       </c>
       <c r="E85">
-        <v>-0.02447045386231558</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09439275507697953</v>
+      </c>
+      <c r="F85">
+        <v>0.1357040190253215</v>
+      </c>
+      <c r="G85">
+        <v>-0.09779994623555333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01083083540644009</v>
+        <v>-0.01385920803859452</v>
       </c>
       <c r="C86">
-        <v>0.01942215829480682</v>
+        <v>0.03059042049214269</v>
       </c>
       <c r="D86">
-        <v>0.06325475920960254</v>
+        <v>0.01243452417516667</v>
       </c>
       <c r="E86">
-        <v>0.02306851262408144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04849998067035696</v>
+      </c>
+      <c r="F86">
+        <v>-0.03322632961969055</v>
+      </c>
+      <c r="G86">
+        <v>0.1798395777376958</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006872970980159152</v>
+        <v>-0.02234338436916001</v>
       </c>
       <c r="C87">
-        <v>-0.006679903974363048</v>
+        <v>0.0239853333711866</v>
       </c>
       <c r="D87">
-        <v>0.05273035221502461</v>
+        <v>0.01182576543315754</v>
       </c>
       <c r="E87">
-        <v>0.02017247988213558</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08611133777946531</v>
+      </c>
+      <c r="F87">
+        <v>-0.0167546103966799</v>
+      </c>
+      <c r="G87">
+        <v>0.1136001324930519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03184412152254579</v>
+        <v>-0.09243831662999633</v>
       </c>
       <c r="C88">
-        <v>0.0297766066630943</v>
+        <v>0.06791235090313787</v>
       </c>
       <c r="D88">
-        <v>0.06129932869893143</v>
+        <v>0.02252311626072472</v>
       </c>
       <c r="E88">
-        <v>-0.004627005207752498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007299423075814203</v>
+      </c>
+      <c r="F88">
+        <v>0.01692801222574787</v>
+      </c>
+      <c r="G88">
+        <v>0.08028739822796106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1202927244651949</v>
+        <v>-0.2336191554699553</v>
       </c>
       <c r="C89">
-        <v>0.3945602279924281</v>
+        <v>-0.366620647856042</v>
       </c>
       <c r="D89">
-        <v>-0.1838910669920245</v>
+        <v>0.0002968835402371888</v>
       </c>
       <c r="E89">
-        <v>-0.02816687611521865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01284556384542606</v>
+      </c>
+      <c r="F89">
+        <v>0.02687979572138527</v>
+      </c>
+      <c r="G89">
+        <v>0.06985532524995522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.09417540496996303</v>
+        <v>-0.2091515439599926</v>
       </c>
       <c r="C90">
-        <v>0.3155500676457685</v>
+        <v>-0.3179409775942446</v>
       </c>
       <c r="D90">
-        <v>-0.1696072910134949</v>
+        <v>-0.004287498471782673</v>
       </c>
       <c r="E90">
-        <v>0.01145493501050683</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003024695870513868</v>
+      </c>
+      <c r="F90">
+        <v>0.05534067031920559</v>
+      </c>
+      <c r="G90">
+        <v>0.03671422159754124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01907279001586795</v>
+        <v>-0.1867708851222506</v>
       </c>
       <c r="C91">
-        <v>0.1154439182158361</v>
+        <v>0.1393502406800211</v>
       </c>
       <c r="D91">
-        <v>0.225072252489979</v>
+        <v>-0.02243556675556446</v>
       </c>
       <c r="E91">
-        <v>-0.025166294406706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05847072457569603</v>
+      </c>
+      <c r="F91">
+        <v>0.147445087015132</v>
+      </c>
+      <c r="G91">
+        <v>0.01789093591026722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.06042067909073001</v>
+        <v>-0.200162874149289</v>
       </c>
       <c r="C92">
-        <v>0.3146226897314189</v>
+        <v>-0.2559071299887929</v>
       </c>
       <c r="D92">
-        <v>-0.06854219967797912</v>
+        <v>-0.0375251747580475</v>
       </c>
       <c r="E92">
-        <v>0.04661037789029085</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03961769871968298</v>
+      </c>
+      <c r="F92">
+        <v>0.05503391389485249</v>
+      </c>
+      <c r="G92">
+        <v>0.1321742773316908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.09445678123279037</v>
+        <v>-0.2329093338219971</v>
       </c>
       <c r="C93">
-        <v>0.3368005930513147</v>
+        <v>-0.3145549676925732</v>
       </c>
       <c r="D93">
-        <v>-0.139331261443994</v>
+        <v>-0.01086055848099203</v>
       </c>
       <c r="E93">
-        <v>0.02359621795394663</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009144707111851462</v>
+      </c>
+      <c r="F93">
+        <v>0.03964680441394366</v>
+      </c>
+      <c r="G93">
+        <v>0.04837173163267913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.05555150391583269</v>
+        <v>-0.3153841289082914</v>
       </c>
       <c r="C94">
-        <v>0.1686073867860412</v>
+        <v>0.1760038027511169</v>
       </c>
       <c r="D94">
-        <v>0.273692639560747</v>
+        <v>-0.01727045323203905</v>
       </c>
       <c r="E94">
-        <v>-0.05287746982749439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1709646028602348</v>
+      </c>
+      <c r="F94">
+        <v>0.48394605013693</v>
+      </c>
+      <c r="G94">
+        <v>-0.3811114419007165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001172955363077367</v>
+        <v>-0.1011923021502203</v>
       </c>
       <c r="C95">
-        <v>0.0295459294917992</v>
+        <v>0.08685443875552039</v>
       </c>
       <c r="D95">
-        <v>0.117914845668022</v>
+        <v>-0.01083722880055993</v>
       </c>
       <c r="E95">
-        <v>0.1365158978588501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06843808158600327</v>
+      </c>
+      <c r="F95">
+        <v>-0.2041862837787645</v>
+      </c>
+      <c r="G95">
+        <v>-0.09739745177184966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02963793261789225</v>
+        <v>-0.1978329514470013</v>
       </c>
       <c r="C98">
-        <v>0.1477004452170751</v>
+        <v>0.04543673246723677</v>
       </c>
       <c r="D98">
-        <v>0.1470150254280804</v>
+        <v>-0.01380494000664525</v>
       </c>
       <c r="E98">
-        <v>0.0254367724804751</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06234812520222703</v>
+      </c>
+      <c r="F98">
+        <v>-0.2401606165671218</v>
+      </c>
+      <c r="G98">
+        <v>-0.008402511336966458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01068214843020047</v>
+        <v>-0.009605940181069918</v>
       </c>
       <c r="C101">
-        <v>0.01708755471263802</v>
+        <v>0.02326155957438297</v>
       </c>
       <c r="D101">
-        <v>0.02123917285077605</v>
+        <v>0.008705795847212964</v>
       </c>
       <c r="E101">
-        <v>-0.0004380000366601211</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0009903464954507128</v>
+      </c>
+      <c r="F101">
+        <v>0.01881296934217191</v>
+      </c>
+      <c r="G101">
+        <v>0.09097528277366146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02126076481528654</v>
+        <v>-0.1171970036179003</v>
       </c>
       <c r="C102">
-        <v>0.04701828187708632</v>
+        <v>0.08390931798178278</v>
       </c>
       <c r="D102">
-        <v>0.1288318160205045</v>
+        <v>0.0007655622685886815</v>
       </c>
       <c r="E102">
-        <v>-0.01299326317029805</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03409746558306034</v>
+      </c>
+      <c r="F102">
+        <v>0.04167953055748887</v>
+      </c>
+      <c r="G102">
+        <v>0.007473293290097155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9535991937151175</v>
+        <v>-0.02122683855508987</v>
       </c>
       <c r="C104">
-        <v>-0.2682316838763618</v>
+        <v>-0.02893655150339019</v>
       </c>
       <c r="D104">
-        <v>-0.03185258931237966</v>
+        <v>0.9878409391223261</v>
       </c>
       <c r="E104">
-        <v>-0.0308894200751386</v>
+        <v>-0.04632340554275569</v>
+      </c>
+      <c r="F104">
+        <v>0.03551331744195883</v>
+      </c>
+      <c r="G104">
+        <v>-0.03245386305305011</v>
       </c>
     </row>
   </sheetData>
